--- a/backend/user_data.xlsx
+++ b/backend/user_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,6 +773,104 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Favorite Genre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Primary Instrument</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Secondary Instrument</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>yuval</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pop</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Drums</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Bass</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Pro</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
